--- a/3sem/лабы/тервер/лаб2.xlsx
+++ b/3sem/лабы/тервер/лаб2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D6ED95-8D32-4052-8E4B-FCE67C7B4CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A223B2C-32EA-4474-B6D9-2C1C1A7151DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7483" yWindow="514" windowWidth="14768" windowHeight="13655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -499,34 +499,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.38461538461538458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,34 +538,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.15</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.08</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.85</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.62</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,8 +882,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5857392825896767E-3"/>
-                  <c:y val="-0.56403579760863221"/>
+                  <c:x val="-0.18072922134733163"/>
+                  <c:y val="-0.49058471857684455"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -923,34 +923,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,34 +962,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3174737054877963</c:v>
+                  <c:v>-1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7083778602890038</c:v>
+                  <c:v>-1.3093333199837622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4060969884160703</c:v>
+                  <c:v>-1.7719568419318752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473189942805592</c:v>
+                  <c:v>-1.3093333199837622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74668794748797507</c:v>
+                  <c:v>-1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48242614924429278</c:v>
+                  <c:v>-1.8971199848858813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34358970439007686</c:v>
+                  <c:v>-2.120263536200091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26236426446749106</c:v>
+                  <c:v>-2.3025850929940455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1906203596086497</c:v>
+                  <c:v>-2.4651040224918206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13976194237515863</c:v>
+                  <c:v>-2.6036901857779675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,6 +1233,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20932633420822397"/>
+          <c:y val="0.19444444444444445"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1402,34 +1410,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,34 +1449,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.15</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.08</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.85</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.62</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,34 +1846,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,34 +1885,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.852216748768472E-2</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1811594202898551</c:v>
+                  <c:v>-3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24509803921568626</c:v>
+                  <c:v>5.8823529411764701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47393364928909953</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61728395061728392</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70921985815602839</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76923076923076916</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82644628099173556</c:v>
+                  <c:v>11.76470588235294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,34 +2268,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,34 +2307,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.15</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.08</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.85</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.62</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,34 +2695,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,34 +2734,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3174737054877963</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7083778602890038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4060969884160703</c:v>
+                  <c:v>-1.7719568419318752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473189942805592</c:v>
+                  <c:v>-1.3093333199837622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74668794748797507</c:v>
+                  <c:v>-1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48242614924429278</c:v>
+                  <c:v>-1.8971199848858813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34358970439007686</c:v>
+                  <c:v>-2.120263536200091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26236426446749106</c:v>
+                  <c:v>-2.3025850929940455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1906203596086497</c:v>
+                  <c:v>-2.4651040224918206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13976194237515863</c:v>
+                  <c:v>-2.6036901857779675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,31 +3097,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22314355131420971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33647223662121289</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.69314718055994529</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0986122886681098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6094379124341003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3025850929940459</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9957322735539909</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4011973816621555</c:v>
+                  <c:v>0.95551144502743635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.912023005428146</c:v>
+                  <c:v>1.1631508098056809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6051701859880918</c:v>
+                  <c:v>1.33500106673234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2983173665480363</c:v>
+                  <c:v>1.4816045409242156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,31 +3136,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3174737054877963</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7083778602890038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4060969884160703</c:v>
+                  <c:v>-1.7719568419318752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473189942805592</c:v>
+                  <c:v>-1.3093333199837622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74668794748797507</c:v>
+                  <c:v>-1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48242614924429278</c:v>
+                  <c:v>-1.8971199848858813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34358970439007686</c:v>
+                  <c:v>-2.120263536200091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26236426446749106</c:v>
+                  <c:v>-2.3025850929940455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1906203596086497</c:v>
+                  <c:v>-2.4651040224918206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3523,31 +3531,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22314355131420971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33647223662121289</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.69314718055994529</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0986122886681098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6094379124341003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3025850929940459</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9957322735539909</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4011973816621555</c:v>
+                  <c:v>0.95551144502743635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.912023005428146</c:v>
+                  <c:v>1.1631508098056809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6051701859880918</c:v>
+                  <c:v>1.33500106673234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2983173665480363</c:v>
+                  <c:v>1.4816045409242156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,34 +3567,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.15</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.08</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.85</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.62</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8814,34 +8822,34 @@
         <v>12</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6">
-        <v>20</v>
-      </c>
       <c r="H2" s="6">
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="I2" s="6">
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="J2" s="6">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="K2" s="6">
-        <v>200</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
@@ -8849,34 +8857,34 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>10.15</v>
+        <v>-0.25</v>
       </c>
       <c r="C3" s="6">
-        <v>5.52</v>
+        <v>-0.27</v>
       </c>
       <c r="D3" s="6">
-        <v>4.08</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="6">
-        <v>2.85</v>
+        <v>0.27</v>
       </c>
       <c r="F3" s="6">
-        <v>2.11</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="6">
-        <v>1.62</v>
+        <v>0.15</v>
       </c>
       <c r="H3" s="6">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="I3" s="6">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="6">
-        <v>1.21</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K3" s="6">
-        <v>1.1499999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
@@ -8899,15 +8907,15 @@
     <row r="6" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <f>B2</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B6" s="6">
         <f>B3</f>
-        <v>10.15</v>
+        <v>-0.25</v>
       </c>
       <c r="C6" s="2">
         <f>A6*B6</f>
-        <v>10.15</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="2">
         <f>POWER(A6,2)</f>
@@ -8915,7 +8923,7 @@
       </c>
       <c r="E6" s="2">
         <f>POWER(B6,2)</f>
-        <v>103.02250000000001</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>22</v>
@@ -8931,23 +8939,23 @@
     <row r="7" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <f>C2</f>
-        <v>2</v>
+        <v>-0.4</v>
       </c>
       <c r="B7" s="6">
         <f>C3</f>
-        <v>5.52</v>
+        <v>-0.27</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C15" si="0">A7*B7</f>
-        <v>11.04</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:D15" si="1">POWER(A7,2)</f>
-        <v>4</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E15" si="2">POWER(B7,2)</f>
-        <v>30.470399999999994</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>23</v>
@@ -8969,23 +8977,23 @@
     <row r="8" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <f>D2</f>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="B8" s="6">
         <f>D3</f>
-        <v>4.08</v>
+        <v>0.17</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>12.24</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>16.6464</v>
+        <v>2.8900000000000006E-2</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -8994,177 +9002,177 @@
     <row r="9" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <f>E2</f>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="6">
         <f>E3</f>
-        <v>2.85</v>
+        <v>0.27</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>14.25</v>
+        <v>0.21600000000000003</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>8.1225000000000005</v>
+        <v>7.2900000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <f>F2</f>
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="B10" s="6">
         <f>F3</f>
-        <v>2.11</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>21.099999999999998</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>4.4520999999999997</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <f>G2</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B11" s="6">
         <f>G3</f>
-        <v>1.62</v>
+        <v>0.15</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>32.400000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>2.6244000000000005</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <f>H2</f>
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="B12" s="6">
         <f>H3</f>
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>42.3</v>
+        <v>0.312</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>6.7600000000000007</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>1.9880999999999998</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <f>I2</f>
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="B13" s="6">
         <f>I3</f>
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1.6900000000000002</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <f>J2</f>
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="B14" s="6">
         <f>J3</f>
-        <v>1.21</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>14.44</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>1.4641</v>
+        <v>7.2250000000000014E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <f>K2</f>
-        <v>200</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B15" s="7">
         <f>K3</f>
-        <v>1.1499999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>229.99999999999997</v>
+        <v>0.3256</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>19.360000000000003</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>1.3224999999999998</v>
+        <v>5.4759999999999991E-3</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <f>SUM(A6:A15)</f>
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <f>SUM(B6:B15)</f>
-        <v>31.400000000000002</v>
+        <v>0.64899999999999991</v>
       </c>
       <c r="C16" s="8">
         <f>SUM(C6:C15)</f>
-        <v>559.48</v>
+        <v>2.4686000000000003</v>
       </c>
       <c r="D16" s="8">
         <f>SUM(D6:D15)</f>
-        <v>53939</v>
+        <v>58.600000000000009</v>
       </c>
       <c r="E16" s="8">
         <f>SUM(E6:E15)</f>
-        <v>171.803</v>
+        <v>0.33680100000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -9182,14 +9190,14 @@
       </c>
       <c r="B18" s="3">
         <f>CORREL(A6:A15,B6:B15)</f>
-        <v>-0.4682708402448677</v>
+        <v>0.46150230212896393</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="4">
         <f>ABS(B18)*SQRT((B17-2)/(1-B18^2))</f>
-        <v>1.4989729040907227</v>
+        <v>1.4713879257334854</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -9211,44 +9219,44 @@
       </c>
       <c r="B20" s="12">
         <f>A16</f>
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="13">
         <f>B16</f>
-        <v>31.400000000000002</v>
+        <v>0.64899999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <f>A16</f>
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="B21" s="15">
         <f>D16</f>
-        <v>53939</v>
+        <v>58.600000000000009</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="16">
         <f>C16</f>
-        <v>559.48</v>
+        <v>2.4686000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="array" ref="A23:B24">MINVERSE(A20:B21)</f>
-        <v>0.14894145779775728</v>
+        <v>0.19730639730639726</v>
       </c>
       <c r="B23">
-        <v>-1.1625049358137119E-3</v>
+        <v>-5.7239057239057235E-2</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="19">
         <f t="array" ref="D23:D24">MMULT(A23:B24,D20:D21)</f>
-        <v>4.0263635133605238</v>
+        <v>-1.3248484848484898E-2</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -9256,16 +9264,16 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>-1.1625049358137121E-3</v>
+        <v>-5.7239057239057221E-2</v>
       </c>
       <c r="B24">
-        <v>2.7612943843556106E-5</v>
+        <v>3.3670033670033662E-2</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="21">
-        <v>-2.1053765162957788E-2</v>
+        <v>4.5969696969696973E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -9304,281 +9312,281 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="22">
         <f>1/A6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B28" s="22">
         <f>B6</f>
-        <v>10.15</v>
+        <v>-0.25</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22">
         <f>A6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="22">
         <f>LN(ABS(B6))</f>
-        <v>2.3174737054877963</v>
+        <v>-1.3862943611198906</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22">
         <f>A6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="22">
         <f>1/B6</f>
-        <v>9.852216748768472E-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="22">
         <f t="shared" ref="A29:A36" si="3">1/A7</f>
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B29" s="22">
         <f t="shared" ref="B29:B35" si="4">B7</f>
-        <v>5.52</v>
+        <v>-0.27</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22">
         <f t="shared" ref="D29:D36" si="5">A7</f>
-        <v>2</v>
+        <v>-0.4</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" ref="E29:E37" si="6">LN(ABS(B7))</f>
-        <v>1.7083778602890038</v>
+        <v>-1.3093333199837622</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22">
         <f t="shared" ref="G29:G36" si="7">A7</f>
-        <v>2</v>
+        <v>-0.4</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" ref="H29:H36" si="8">1/B7</f>
-        <v>0.1811594202898551</v>
+        <v>-3.7037037037037033</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="22">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>5</v>
       </c>
       <c r="B30" s="22">
         <f t="shared" si="4"/>
-        <v>4.08</v>
+        <v>0.17</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="22">
         <f t="shared" si="6"/>
-        <v>1.4060969884160703</v>
+        <v>-1.7719568419318752</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="8"/>
-        <v>0.24509803921568626</v>
+        <v>5.8823529411764701</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="22">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="B31" s="22">
         <f t="shared" si="4"/>
-        <v>2.85</v>
+        <v>0.27</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="6"/>
-        <v>1.0473189942805592</v>
+        <v>-1.3093333199837622</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="8"/>
-        <v>0.35087719298245612</v>
+        <v>3.7037037037037033</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="22">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B32" s="22">
         <f t="shared" si="4"/>
-        <v>2.11</v>
+        <v>0.2</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="6"/>
-        <v>0.74668794748797507</v>
+        <v>-1.6094379124341003</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="8"/>
-        <v>0.47393364928909953</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="22">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="B33" s="22">
         <f t="shared" si="4"/>
-        <v>1.62</v>
+        <v>0.15</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="6"/>
-        <v>0.48242614924429278</v>
+        <v>-1.8971199848858813</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="8"/>
-        <v>0.61728395061728392</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="22">
         <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="B34" s="22">
         <f t="shared" si="4"/>
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="E34" s="22">
         <f t="shared" si="6"/>
-        <v>0.34358970439007686</v>
+        <v>-2.120263536200091</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="8"/>
-        <v>0.70921985815602839</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="22">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.3125</v>
       </c>
       <c r="B35" s="22">
         <f t="shared" si="4"/>
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="6"/>
-        <v>0.26236426446749106</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="8"/>
-        <v>0.76923076923076916</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="22">
         <f t="shared" si="3"/>
-        <v>0.01</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="B36" s="22">
         <f>B14</f>
-        <v>1.21</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="6"/>
-        <v>0.1906203596086497</v>
+        <v>-2.4651040224918206</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="8"/>
-        <v>0.82644628099173556</v>
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="22">
         <f>1/A15</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="B37" s="22">
         <f>B15</f>
-        <v>1.1499999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22">
         <f>A15</f>
-        <v>200</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="6"/>
-        <v>0.13976194237515863</v>
+        <v>-2.6036901857779675</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22">
         <f>A15</f>
-        <v>200</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H37" s="22">
         <f>1/A15</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.22727272727272727</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
@@ -9607,323 +9615,323 @@
     <row r="42" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <f>A6</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="6" t="e">
         <f>LN(B6)</f>
-        <v>2.3174737054877963</v>
-      </c>
-      <c r="C42" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="C42" s="2" t="e">
         <f>A42*B42</f>
-        <v>2.3174737054877963</v>
+        <v>#NUM!</v>
       </c>
       <c r="D42" s="2">
         <f>POWER(A42,2)</f>
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="e">
         <f>POWER(B42,2)</f>
-        <v>5.370684375627337</v>
-      </c>
-      <c r="F42">
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" t="e">
         <f>LN(A6)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G42" s="22">
         <f>B6</f>
-        <v>10.15</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <f t="shared" ref="A43:A51" si="9">A7</f>
-        <v>2</v>
-      </c>
-      <c r="B43" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="B43" s="6" t="e">
         <f t="shared" ref="B43:B51" si="10">LN(B7)</f>
-        <v>1.7083778602890038</v>
-      </c>
-      <c r="C43" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="C43" s="2" t="e">
         <f t="shared" ref="C43:C51" si="11">A43*B43</f>
-        <v>3.4167557205780077</v>
+        <v>#NUM!</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ref="D43:D51" si="12">POWER(A43,2)</f>
-        <v>4</v>
-      </c>
-      <c r="E43" s="2">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E43" s="2" t="e">
         <f t="shared" ref="E43:E51" si="13">POWER(B43,2)</f>
-        <v>2.918554913525635</v>
-      </c>
-      <c r="F43">
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" t="e">
         <f t="shared" ref="F43:F51" si="14">LN(A7)</f>
-        <v>0.69314718055994529</v>
+        <v>#NUM!</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" ref="G43:G51" si="15">B7</f>
-        <v>5.52</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="B44" s="6">
         <f t="shared" si="10"/>
-        <v>1.4060969884160703</v>
+        <v>-1.7719568419318752</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="11"/>
-        <v>4.2182909652482108</v>
+        <v>-0.35439136838637508</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="13"/>
-        <v>1.9771087408327426</v>
+        <v>3.1398310496691844</v>
       </c>
       <c r="F44">
         <f t="shared" si="14"/>
-        <v>1.0986122886681098</v>
+        <v>-1.6094379124341003</v>
       </c>
       <c r="G44" s="22">
         <f t="shared" si="15"/>
-        <v>4.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" si="10"/>
-        <v>1.0473189942805592</v>
+        <v>-1.3093333199837622</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="11"/>
-        <v>5.2365949714027957</v>
+        <v>-1.0474666559870098</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="13"/>
-        <v>1.0968770757808419</v>
+        <v>1.7143537428197011</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
-        <v>1.6094379124341003</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="G45" s="22">
         <f t="shared" si="15"/>
-        <v>2.85</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="B46" s="6">
         <f t="shared" si="10"/>
-        <v>0.74668794748797507</v>
+        <v>-1.6094379124341003</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="11"/>
-        <v>7.4668794748797502</v>
+        <v>-2.2532130774077404</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="13"/>
-        <v>0.55754289092380505</v>
+        <v>2.5902903939802346</v>
       </c>
       <c r="F46">
         <f t="shared" si="14"/>
-        <v>2.3025850929940459</v>
+        <v>0.33647223662121289</v>
       </c>
       <c r="G46" s="22">
         <f t="shared" si="15"/>
-        <v>2.11</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B47" s="6">
         <f t="shared" si="10"/>
-        <v>0.48242614924429278</v>
+        <v>-1.8971199848858813</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="11"/>
-        <v>9.6485229848858562</v>
+        <v>-3.7942399697717626</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="12"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="13"/>
-        <v>0.23273498947467666</v>
+        <v>3.5990642370534065</v>
       </c>
       <c r="F47">
         <f t="shared" si="14"/>
-        <v>2.9957322735539909</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="G47" s="22">
         <f t="shared" si="15"/>
-        <v>1.62</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" si="10"/>
-        <v>0.34358970439007686</v>
+        <v>-2.120263536200091</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="11"/>
-        <v>10.307691131702306</v>
+        <v>-5.5126851941202366</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="12"/>
-        <v>900</v>
+        <v>6.7600000000000007</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="13"/>
-        <v>0.1180538849628604</v>
+        <v>4.4955174629397145</v>
       </c>
       <c r="F48">
         <f t="shared" si="14"/>
-        <v>3.4011973816621555</v>
+        <v>0.95551144502743635</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" si="15"/>
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>3.2</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" si="10"/>
-        <v>0.26236426446749106</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="11"/>
-        <v>13.118213223374553</v>
+        <v>-7.3682722975809458</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="12"/>
-        <v>2500</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="13"/>
-        <v>6.8835007269567594E-2</v>
+        <v>5.3018981104783967</v>
       </c>
       <c r="F49">
         <f t="shared" si="14"/>
-        <v>3.912023005428146</v>
+        <v>1.1631508098056809</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="15"/>
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" si="10"/>
-        <v>0.1906203596086497</v>
+        <v>-2.4651040224918206</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="11"/>
-        <v>19.062035960864971</v>
+        <v>-9.367395285468918</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="12"/>
-        <v>10000</v>
+        <v>14.44</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="13"/>
-        <v>3.6336121497330932E-2</v>
+        <v>6.0767378417053539</v>
       </c>
       <c r="F50">
         <f t="shared" si="14"/>
-        <v>4.6051701859880918</v>
+        <v>1.33500106673234</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="15"/>
-        <v>1.21</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" si="10"/>
-        <v>0.13976194237515863</v>
+        <v>-2.6036901857779675</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="11"/>
-        <v>27.952388475031725</v>
+        <v>-11.456236817423058</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="12"/>
-        <v>40000</v>
+        <v>19.360000000000003</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="13"/>
-        <v>1.9533400536477161E-2</v>
+        <v>6.7792025835165068</v>
       </c>
       <c r="F51">
         <f t="shared" si="14"/>
-        <v>5.2983173665480363</v>
+        <v>1.4816045409242156</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="15"/>
-        <v>1.1499999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <f>SUM(A42:A51)</f>
-        <v>421</v>
-      </c>
-      <c r="B52" s="8">
+        <v>17</v>
+      </c>
+      <c r="B52" s="8" t="e">
         <f>SUM(B42:B51)</f>
-        <v>8.6447179160470746</v>
-      </c>
-      <c r="C52" s="8">
+        <v>#NUM!</v>
+      </c>
+      <c r="C52" s="8" t="e">
         <f>SUM(C42:C51)</f>
-        <v>102.74484661345598</v>
+        <v>#NUM!</v>
       </c>
       <c r="D52" s="8">
         <f>SUM(D42:D51)</f>
-        <v>53939</v>
-      </c>
-      <c r="E52" s="8">
+        <v>58.600000000000009</v>
+      </c>
+      <c r="E52" s="8" t="e">
         <f>SUM(E42:E51)</f>
-        <v>12.396261400431277</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -9939,16 +9947,16 @@
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="3" t="e">
         <f>CORREL(A42:A51,B42:B51)</f>
-        <v>-0.61859221135290809</v>
+        <v>#NUM!</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="4" t="e">
         <f>ABS(B54)*SQRT((B53-2)/(1-B54^2))</f>
-        <v>2.2268242350565894</v>
+        <v>#NUM!</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -9966,44 +9974,44 @@
       </c>
       <c r="B56" s="12">
         <f>A52</f>
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="C56" s="17"/>
-      <c r="D56" s="13">
+      <c r="D56" s="13" t="e">
         <f>B52</f>
-        <v>8.6447179160470746</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14">
         <f>A52</f>
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="B57" s="15">
         <f>D52</f>
-        <v>53939</v>
+        <v>58.600000000000009</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="16">
+      <c r="D57" s="16" t="e">
         <f>C52</f>
-        <v>102.74484661345598</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="array" ref="A59:B60">MINVERSE(A56:B57)</f>
-        <v>0.14894145779775728</v>
+        <v>0.19730639730639726</v>
       </c>
       <c r="B59">
-        <v>-1.1625049358137119E-3</v>
+        <v>-5.7239057239057235E-2</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="19" t="e">
         <f t="array" ref="D59:D60">MMULT(A59:B60,D56:D57)</f>
-        <v>1.1681154973488763</v>
+        <v>#NUM!</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
@@ -10011,16 +10019,16 @@
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>-1.1625049358137121E-3</v>
+        <v>-5.7239057239057221E-2</v>
       </c>
       <c r="B60">
-        <v>2.7612943843556106E-5</v>
+        <v>3.3670033670033662E-2</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="21">
-        <v>-7.2124395663698063E-3</v>
+      <c r="D60" s="21" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
@@ -10032,103 +10040,103 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A63">
+      <c r="A63" t="e">
         <f>LN(A6)</f>
-        <v>0</v>
-      </c>
-      <c r="B63" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="B63" s="6" t="e">
         <f>LN(A6)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A64">
+      <c r="A64" t="e">
         <f t="shared" ref="A64:A72" si="16">LN(A7)</f>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="B64" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="B64" s="6" t="e">
         <f t="shared" ref="B64:B72" si="17">LN(B28)</f>
-        <v>2.3174737054877963</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="16"/>
-        <v>1.0986122886681098</v>
-      </c>
-      <c r="B65" s="6">
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="B65" s="6" t="e">
         <f t="shared" si="17"/>
-        <v>1.7083778602890038</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="16"/>
-        <v>1.6094379124341003</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="17"/>
-        <v>1.4060969884160703</v>
+        <v>-1.7719568419318752</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="16"/>
-        <v>2.3025850929940459</v>
+        <v>0.33647223662121289</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="17"/>
-        <v>1.0473189942805592</v>
+        <v>-1.3093333199837622</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" si="16"/>
-        <v>2.9957322735539909</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="17"/>
-        <v>0.74668794748797507</v>
+        <v>-1.6094379124341003</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A69">
         <f t="shared" si="16"/>
-        <v>3.4011973816621555</v>
+        <v>0.95551144502743635</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" si="17"/>
-        <v>0.48242614924429278</v>
+        <v>-1.8971199848858813</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A70">
         <f t="shared" si="16"/>
-        <v>3.912023005428146</v>
+        <v>1.1631508098056809</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" si="17"/>
-        <v>0.34358970439007686</v>
+        <v>-2.120263536200091</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A71">
         <f t="shared" si="16"/>
-        <v>4.6051701859880918</v>
+        <v>1.33500106673234</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="17"/>
-        <v>0.26236426446749106</v>
+        <v>-2.3025850929940455</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A72">
         <f t="shared" si="16"/>
-        <v>5.2983173665480363</v>
+        <v>1.4816045409242156</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="17"/>
-        <v>0.1906203596086497</v>
+        <v>-2.4651040224918206</v>
       </c>
     </row>
   </sheetData>
